--- a/assets/i2c_sequence.xlsx
+++ b/assets/i2c_sequence.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\github\ESP-Nodes\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB49939-5EF8-4507-AC76-115C86E6754E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D0964D-1529-4AE3-8E8B-BEC6B30DF0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5739131D-9332-445A-8275-46E1CAAC2C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="I2C_Write" sheetId="1" r:id="rId1"/>
+    <sheet name="I2C_Write (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="I2C_Write (3)" sheetId="3" r:id="rId3"/>
+    <sheet name="I2C_Write (4)" sheetId="4" r:id="rId4"/>
+    <sheet name="I2C_Write (5)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="24">
   <si>
     <t>START</t>
   </si>
@@ -559,7 +563,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,8 +663,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,13 +698,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFDDFFDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -845,96 +874,140 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,6 +1015,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFDDFFDD"/>
+      <color rgb="FFCCECFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1273,7 +1353,7 @@
   <dimension ref="C1:AC20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1288,77 +1368,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="44" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
     </row>
     <row r="2" spans="3:29" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="33">
-        <v>1</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="18" t="s">
+      <c r="O2" s="11">
+        <v>1</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="19" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="21"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="51"/>
     </row>
     <row r="3" spans="3:29" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="6" t="s">
@@ -1391,107 +1471,107 @@
       <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>1</v>
-      </c>
-      <c r="R3" s="13">
-        <v>1</v>
-      </c>
-      <c r="S3" s="13">
-        <v>1</v>
-      </c>
-      <c r="T3" s="13">
-        <v>0</v>
-      </c>
-      <c r="U3" s="13">
-        <v>1</v>
-      </c>
-      <c r="V3" s="13">
-        <v>1</v>
-      </c>
-      <c r="W3" s="13">
-        <v>0</v>
-      </c>
-      <c r="X3" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="15" t="s">
+      <c r="O3" s="12"/>
+      <c r="P3" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="59">
+        <v>1</v>
+      </c>
+      <c r="R3" s="59">
+        <v>1</v>
+      </c>
+      <c r="S3" s="59">
+        <v>1</v>
+      </c>
+      <c r="T3" s="59">
+        <v>0</v>
+      </c>
+      <c r="U3" s="59">
+        <v>1</v>
+      </c>
+      <c r="V3" s="59">
+        <v>1</v>
+      </c>
+      <c r="W3" s="59">
+        <v>0</v>
+      </c>
+      <c r="X3" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="23"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="53"/>
     </row>
     <row r="4" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O4" s="34"/>
-      <c r="P4" s="24" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="27"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="43"/>
     </row>
     <row r="5" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O5" s="35"/>
-      <c r="P5" s="28" t="s">
+      <c r="O5" s="13"/>
+      <c r="P5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="31"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="47"/>
     </row>
     <row r="6" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="3"/>
-      <c r="O6" s="33">
+      <c r="O6" s="11">
         <v>2</v>
       </c>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="18" t="s">
+      <c r="P6" s="35"/>
+      <c r="Q6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
       <c r="Y6" s="37"/>
       <c r="Z6" s="38"/>
       <c r="AA6" s="38"/>
@@ -1527,92 +1607,92 @@
       <c r="L7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="34"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="13">
-        <v>1</v>
-      </c>
-      <c r="R7" s="13">
-        <v>1</v>
-      </c>
-      <c r="S7" s="13">
-        <v>0</v>
-      </c>
-      <c r="T7" s="13">
-        <v>1</v>
-      </c>
-      <c r="U7" s="13">
-        <v>0</v>
-      </c>
-      <c r="V7" s="13">
-        <v>0</v>
-      </c>
-      <c r="W7" s="13">
-        <v>0</v>
-      </c>
-      <c r="X7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="15" t="s">
+      <c r="O7" s="12"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="64">
+        <v>1</v>
+      </c>
+      <c r="R7" s="64">
+        <v>1</v>
+      </c>
+      <c r="S7" s="64">
+        <v>0</v>
+      </c>
+      <c r="T7" s="64">
+        <v>1</v>
+      </c>
+      <c r="U7" s="64">
+        <v>0</v>
+      </c>
+      <c r="V7" s="64">
+        <v>0</v>
+      </c>
+      <c r="W7" s="64">
+        <v>0</v>
+      </c>
+      <c r="X7" s="64">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="27"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="43"/>
     </row>
     <row r="8" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O8" s="35"/>
-      <c r="P8" s="28" t="s">
+      <c r="O8" s="13"/>
+      <c r="P8" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="31"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="47"/>
     </row>
     <row r="9" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
       <c r="L9" s="3"/>
       <c r="M9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="33">
+      <c r="O9" s="11">
         <v>3</v>
       </c>
-      <c r="P9" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="18" t="s">
+      <c r="P9" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="19" t="s">
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="49" t="s">
         <v>10</v>
       </c>
       <c r="Y9" s="37"/>
@@ -1653,95 +1733,95 @@
       <c r="M10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="34"/>
-      <c r="P10" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>1</v>
-      </c>
-      <c r="R10" s="13">
-        <v>1</v>
-      </c>
-      <c r="S10" s="13">
-        <v>1</v>
-      </c>
-      <c r="T10" s="13">
-        <v>0</v>
-      </c>
-      <c r="U10" s="13">
-        <v>1</v>
-      </c>
-      <c r="V10" s="13">
-        <v>1</v>
-      </c>
-      <c r="W10" s="13">
-        <v>1</v>
-      </c>
-      <c r="X10" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="15" t="s">
+      <c r="O10" s="12"/>
+      <c r="P10" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="64">
+        <v>1</v>
+      </c>
+      <c r="R10" s="64">
+        <v>1</v>
+      </c>
+      <c r="S10" s="64">
+        <v>1</v>
+      </c>
+      <c r="T10" s="64">
+        <v>0</v>
+      </c>
+      <c r="U10" s="64">
+        <v>1</v>
+      </c>
+      <c r="V10" s="64">
+        <v>1</v>
+      </c>
+      <c r="W10" s="64">
+        <v>1</v>
+      </c>
+      <c r="X10" s="63">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="27"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="43"/>
     </row>
     <row r="11" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O11" s="34"/>
-      <c r="P11" s="24" t="s">
+      <c r="O11" s="12"/>
+      <c r="P11" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="27"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="43"/>
     </row>
     <row r="12" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O12" s="35"/>
-      <c r="P12" s="28" t="s">
+      <c r="O12" s="13"/>
+      <c r="P12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="31"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="47"/>
     </row>
     <row r="13" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O13" s="33">
+      <c r="O13" s="11">
         <v>4</v>
       </c>
       <c r="P13" s="38"/>
-      <c r="Q13" s="18" t="s">
+      <c r="Q13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
       <c r="Y13" s="37"/>
       <c r="Z13" s="38"/>
       <c r="AA13" s="38"/>
@@ -1749,76 +1829,76 @@
       <c r="AC13" s="39"/>
     </row>
     <row r="14" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O14" s="34"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="T14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="V14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y14" s="15" t="s">
+      <c r="O14" s="12"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="V14" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="27"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="43"/>
     </row>
     <row r="15" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O15" s="35"/>
-      <c r="P15" s="28" t="s">
+      <c r="O15" s="13"/>
+      <c r="P15" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="31"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="47"/>
     </row>
     <row r="16" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O16" s="33">
+      <c r="O16" s="11">
         <v>5</v>
       </c>
       <c r="P16" s="38"/>
-      <c r="Q16" s="18" t="s">
+      <c r="Q16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
       <c r="Y16" s="37"/>
-      <c r="Z16" s="40" t="s">
+      <c r="Z16" s="56" t="s">
         <v>7</v>
       </c>
       <c r="AA16" s="38"/>
@@ -1826,101 +1906,105 @@
       <c r="AC16" s="39"/>
     </row>
     <row r="17" spans="15:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O17" s="34"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="T17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="V17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="W17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="X17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y17" s="15" t="s">
+      <c r="O17" s="12"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="X17" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="Z17" s="14" t="s">
+      <c r="Z17" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="27"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="43"/>
     </row>
     <row r="18" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O18" s="34"/>
-      <c r="P18" s="24" t="s">
+      <c r="O18" s="12"/>
+      <c r="P18" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="27"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="43"/>
     </row>
     <row r="19" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O19" s="34"/>
-      <c r="P19" s="24" t="s">
+      <c r="O19" s="12"/>
+      <c r="P19" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="27"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="43"/>
     </row>
     <row r="20" spans="15:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O20" s="35"/>
-      <c r="P20" s="41" t="s">
+      <c r="O20" s="13"/>
+      <c r="P20" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="42"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="C1:M1"/>
     <mergeCell ref="O16:O20"/>
     <mergeCell ref="P20:AC20"/>
     <mergeCell ref="O1:AC1"/>
@@ -1933,10 +2017,2702 @@
     <mergeCell ref="Q6:X6"/>
     <mergeCell ref="Q9:W9"/>
     <mergeCell ref="Q13:X13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1609D8-1CB2-4EB3-9573-4FD3DB83D61B}">
+  <dimension ref="C1:AC20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="5" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="13" max="14" width="5" customWidth="1"/>
+    <col min="16" max="24" width="5" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5" customWidth="1"/>
+    <col min="29" max="29" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+    </row>
+    <row r="2" spans="3:29" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="11">
+        <v>1</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="51"/>
+    </row>
+    <row r="3" spans="3:29" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="59">
+        <v>1</v>
+      </c>
+      <c r="R3" s="59">
+        <v>1</v>
+      </c>
+      <c r="S3" s="59">
+        <v>1</v>
+      </c>
+      <c r="T3" s="59">
+        <v>0</v>
+      </c>
+      <c r="U3" s="59">
+        <v>1</v>
+      </c>
+      <c r="V3" s="59">
+        <v>1</v>
+      </c>
+      <c r="W3" s="59">
+        <v>0</v>
+      </c>
+      <c r="X3" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="53"/>
+    </row>
+    <row r="4" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="12"/>
+      <c r="P4" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="43"/>
+    </row>
+    <row r="5" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O5" s="13"/>
+      <c r="P5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="47"/>
+    </row>
+    <row r="6" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="2"/>
+      <c r="D6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="3"/>
+      <c r="O6" s="11">
+        <v>2</v>
+      </c>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="31"/>
+    </row>
+    <row r="7" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="59">
+        <v>1</v>
+      </c>
+      <c r="R7" s="59">
+        <v>1</v>
+      </c>
+      <c r="S7" s="59">
+        <v>0</v>
+      </c>
+      <c r="T7" s="59">
+        <v>1</v>
+      </c>
+      <c r="U7" s="59">
+        <v>0</v>
+      </c>
+      <c r="V7" s="59">
+        <v>0</v>
+      </c>
+      <c r="W7" s="59">
+        <v>0</v>
+      </c>
+      <c r="X7" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="23"/>
+    </row>
+    <row r="8" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O8" s="13"/>
+      <c r="P8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="27"/>
+    </row>
+    <row r="9" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="2"/>
+      <c r="D9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="11">
+        <v>3</v>
+      </c>
+      <c r="P9" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="39"/>
+    </row>
+    <row r="10" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="12"/>
+      <c r="P10" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="64">
+        <v>1</v>
+      </c>
+      <c r="R10" s="64">
+        <v>1</v>
+      </c>
+      <c r="S10" s="64">
+        <v>1</v>
+      </c>
+      <c r="T10" s="64">
+        <v>0</v>
+      </c>
+      <c r="U10" s="64">
+        <v>1</v>
+      </c>
+      <c r="V10" s="64">
+        <v>1</v>
+      </c>
+      <c r="W10" s="64">
+        <v>1</v>
+      </c>
+      <c r="X10" s="63">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="43"/>
+    </row>
+    <row r="11" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O11" s="12"/>
+      <c r="P11" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="43"/>
+    </row>
+    <row r="12" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="O12" s="13"/>
+      <c r="P12" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="47"/>
+    </row>
+    <row r="13" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O13" s="11">
+        <v>4</v>
+      </c>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="39"/>
+    </row>
+    <row r="14" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O14" s="12"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="V14" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="43"/>
+    </row>
+    <row r="15" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="O15" s="13"/>
+      <c r="P15" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="47"/>
+    </row>
+    <row r="16" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O16" s="11">
+        <v>5</v>
+      </c>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="39"/>
+    </row>
+    <row r="17" spans="15:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O17" s="12"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="X17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="43"/>
+    </row>
+    <row r="18" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O18" s="12"/>
+      <c r="P18" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="43"/>
+    </row>
+    <row r="19" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="12"/>
+      <c r="P19" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="43"/>
+    </row>
+    <row r="20" spans="15:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="13"/>
+      <c r="P20" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="Q13:X13"/>
+    <mergeCell ref="O16:O20"/>
+    <mergeCell ref="Q16:X16"/>
+    <mergeCell ref="P20:AC20"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="O1:AC1"/>
     <mergeCell ref="D2:J2"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="Q2:W2"/>
     <mergeCell ref="D6:K6"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="Q6:X6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E0EA2C-31FB-499D-A580-B5F9E66AC420}">
+  <dimension ref="C1:AC20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17:Z17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="5" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="13" max="14" width="5" customWidth="1"/>
+    <col min="16" max="24" width="5" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5" customWidth="1"/>
+    <col min="29" max="29" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+    </row>
+    <row r="2" spans="3:29" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="11">
+        <v>1</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="51"/>
+    </row>
+    <row r="3" spans="3:29" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="64">
+        <v>1</v>
+      </c>
+      <c r="R3" s="64">
+        <v>1</v>
+      </c>
+      <c r="S3" s="64">
+        <v>1</v>
+      </c>
+      <c r="T3" s="64">
+        <v>0</v>
+      </c>
+      <c r="U3" s="64">
+        <v>1</v>
+      </c>
+      <c r="V3" s="64">
+        <v>1</v>
+      </c>
+      <c r="W3" s="64">
+        <v>0</v>
+      </c>
+      <c r="X3" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="53"/>
+    </row>
+    <row r="4" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="12"/>
+      <c r="P4" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="43"/>
+    </row>
+    <row r="5" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O5" s="13"/>
+      <c r="P5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="47"/>
+    </row>
+    <row r="6" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="2"/>
+      <c r="D6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="3"/>
+      <c r="O6" s="11">
+        <v>2</v>
+      </c>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="39"/>
+    </row>
+    <row r="7" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="40">
+        <v>1</v>
+      </c>
+      <c r="R7" s="40">
+        <v>1</v>
+      </c>
+      <c r="S7" s="40">
+        <v>0</v>
+      </c>
+      <c r="T7" s="40">
+        <v>1</v>
+      </c>
+      <c r="U7" s="40">
+        <v>0</v>
+      </c>
+      <c r="V7" s="40">
+        <v>0</v>
+      </c>
+      <c r="W7" s="40">
+        <v>0</v>
+      </c>
+      <c r="X7" s="40">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="43"/>
+    </row>
+    <row r="8" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O8" s="13"/>
+      <c r="P8" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="47"/>
+    </row>
+    <row r="9" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="2"/>
+      <c r="D9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="11">
+        <v>3</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="31"/>
+    </row>
+    <row r="10" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="12"/>
+      <c r="P10" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="64">
+        <v>1</v>
+      </c>
+      <c r="R10" s="64">
+        <v>1</v>
+      </c>
+      <c r="S10" s="64">
+        <v>1</v>
+      </c>
+      <c r="T10" s="64">
+        <v>0</v>
+      </c>
+      <c r="U10" s="64">
+        <v>1</v>
+      </c>
+      <c r="V10" s="64">
+        <v>1</v>
+      </c>
+      <c r="W10" s="64">
+        <v>1</v>
+      </c>
+      <c r="X10" s="63">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="23"/>
+    </row>
+    <row r="11" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O11" s="12"/>
+      <c r="P11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="23"/>
+    </row>
+    <row r="12" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="O12" s="13"/>
+      <c r="P12" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="27"/>
+    </row>
+    <row r="13" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O13" s="11">
+        <v>4</v>
+      </c>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="39"/>
+    </row>
+    <row r="14" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O14" s="12"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="V14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="43"/>
+    </row>
+    <row r="15" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="O15" s="13"/>
+      <c r="P15" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="47"/>
+    </row>
+    <row r="16" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O16" s="11">
+        <v>5</v>
+      </c>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="39"/>
+    </row>
+    <row r="17" spans="15:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O17" s="12"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="X17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="43"/>
+    </row>
+    <row r="18" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O18" s="12"/>
+      <c r="P18" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="43"/>
+    </row>
+    <row r="19" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="12"/>
+      <c r="P19" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="43"/>
+    </row>
+    <row r="20" spans="15:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="13"/>
+      <c r="P20" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
     <mergeCell ref="D9:K9"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="Q13:X13"/>
+    <mergeCell ref="O16:O20"/>
+    <mergeCell ref="Q16:X16"/>
+    <mergeCell ref="P20:AC20"/>
     <mergeCell ref="C1:M1"/>
+    <mergeCell ref="O1:AC1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="Q6:X6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70C4130-800F-4E67-A099-5EDFE594727C}">
+  <dimension ref="C1:AC20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="5" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="13" max="14" width="5" customWidth="1"/>
+    <col min="16" max="24" width="5" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5" customWidth="1"/>
+    <col min="29" max="29" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+    </row>
+    <row r="2" spans="3:29" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="11">
+        <v>1</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="51"/>
+    </row>
+    <row r="3" spans="3:29" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="64">
+        <v>1</v>
+      </c>
+      <c r="R3" s="64">
+        <v>1</v>
+      </c>
+      <c r="S3" s="64">
+        <v>1</v>
+      </c>
+      <c r="T3" s="64">
+        <v>0</v>
+      </c>
+      <c r="U3" s="64">
+        <v>1</v>
+      </c>
+      <c r="V3" s="64">
+        <v>1</v>
+      </c>
+      <c r="W3" s="64">
+        <v>0</v>
+      </c>
+      <c r="X3" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="53"/>
+    </row>
+    <row r="4" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="12"/>
+      <c r="P4" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="43"/>
+    </row>
+    <row r="5" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O5" s="13"/>
+      <c r="P5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="47"/>
+    </row>
+    <row r="6" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="2"/>
+      <c r="D6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="3"/>
+      <c r="O6" s="11">
+        <v>2</v>
+      </c>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="39"/>
+    </row>
+    <row r="7" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="64">
+        <v>1</v>
+      </c>
+      <c r="R7" s="64">
+        <v>1</v>
+      </c>
+      <c r="S7" s="64">
+        <v>0</v>
+      </c>
+      <c r="T7" s="64">
+        <v>1</v>
+      </c>
+      <c r="U7" s="64">
+        <v>0</v>
+      </c>
+      <c r="V7" s="64">
+        <v>0</v>
+      </c>
+      <c r="W7" s="64">
+        <v>0</v>
+      </c>
+      <c r="X7" s="64">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="43"/>
+    </row>
+    <row r="8" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O8" s="13"/>
+      <c r="P8" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="47"/>
+    </row>
+    <row r="9" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="2"/>
+      <c r="D9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="11">
+        <v>3</v>
+      </c>
+      <c r="P9" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="39"/>
+    </row>
+    <row r="10" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="12"/>
+      <c r="P10" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="64">
+        <v>1</v>
+      </c>
+      <c r="R10" s="64">
+        <v>1</v>
+      </c>
+      <c r="S10" s="64">
+        <v>1</v>
+      </c>
+      <c r="T10" s="64">
+        <v>0</v>
+      </c>
+      <c r="U10" s="64">
+        <v>1</v>
+      </c>
+      <c r="V10" s="64">
+        <v>1</v>
+      </c>
+      <c r="W10" s="64">
+        <v>1</v>
+      </c>
+      <c r="X10" s="63">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="43"/>
+    </row>
+    <row r="11" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O11" s="12"/>
+      <c r="P11" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="43"/>
+    </row>
+    <row r="12" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="O12" s="13"/>
+      <c r="P12" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="47"/>
+    </row>
+    <row r="13" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O13" s="11">
+        <v>4</v>
+      </c>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="31"/>
+    </row>
+    <row r="14" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O14" s="12"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="V14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="23"/>
+    </row>
+    <row r="15" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="O15" s="13"/>
+      <c r="P15" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="27"/>
+    </row>
+    <row r="16" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O16" s="11">
+        <v>5</v>
+      </c>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="39"/>
+    </row>
+    <row r="17" spans="15:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O17" s="12"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="X17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="43"/>
+    </row>
+    <row r="18" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O18" s="12"/>
+      <c r="P18" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="43"/>
+    </row>
+    <row r="19" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="12"/>
+      <c r="P19" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="43"/>
+    </row>
+    <row r="20" spans="15:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="13"/>
+      <c r="P20" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="Q13:X13"/>
+    <mergeCell ref="O16:O20"/>
+    <mergeCell ref="Q16:X16"/>
+    <mergeCell ref="P20:AC20"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="O1:AC1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="Q6:X6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E484F64-7A42-4F53-9F7D-E20A7B3204CE}">
+  <dimension ref="C1:AC20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="5" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="13" max="14" width="5" customWidth="1"/>
+    <col min="16" max="24" width="5" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5" customWidth="1"/>
+    <col min="29" max="29" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+    </row>
+    <row r="2" spans="3:29" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="11">
+        <v>1</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="51"/>
+    </row>
+    <row r="3" spans="3:29" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="64">
+        <v>1</v>
+      </c>
+      <c r="R3" s="64">
+        <v>1</v>
+      </c>
+      <c r="S3" s="64">
+        <v>1</v>
+      </c>
+      <c r="T3" s="64">
+        <v>0</v>
+      </c>
+      <c r="U3" s="64">
+        <v>1</v>
+      </c>
+      <c r="V3" s="64">
+        <v>1</v>
+      </c>
+      <c r="W3" s="64">
+        <v>0</v>
+      </c>
+      <c r="X3" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="53"/>
+    </row>
+    <row r="4" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="12"/>
+      <c r="P4" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="43"/>
+    </row>
+    <row r="5" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O5" s="13"/>
+      <c r="P5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="47"/>
+    </row>
+    <row r="6" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="2"/>
+      <c r="D6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="3"/>
+      <c r="O6" s="11">
+        <v>2</v>
+      </c>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="39"/>
+    </row>
+    <row r="7" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="64">
+        <v>1</v>
+      </c>
+      <c r="R7" s="64">
+        <v>1</v>
+      </c>
+      <c r="S7" s="64">
+        <v>0</v>
+      </c>
+      <c r="T7" s="64">
+        <v>1</v>
+      </c>
+      <c r="U7" s="64">
+        <v>0</v>
+      </c>
+      <c r="V7" s="64">
+        <v>0</v>
+      </c>
+      <c r="W7" s="64">
+        <v>0</v>
+      </c>
+      <c r="X7" s="64">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="43"/>
+    </row>
+    <row r="8" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O8" s="13"/>
+      <c r="P8" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="47"/>
+    </row>
+    <row r="9" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="2"/>
+      <c r="D9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="11">
+        <v>3</v>
+      </c>
+      <c r="P9" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="39"/>
+    </row>
+    <row r="10" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="12"/>
+      <c r="P10" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="64">
+        <v>1</v>
+      </c>
+      <c r="R10" s="64">
+        <v>1</v>
+      </c>
+      <c r="S10" s="64">
+        <v>1</v>
+      </c>
+      <c r="T10" s="64">
+        <v>0</v>
+      </c>
+      <c r="U10" s="64">
+        <v>1</v>
+      </c>
+      <c r="V10" s="64">
+        <v>1</v>
+      </c>
+      <c r="W10" s="64">
+        <v>1</v>
+      </c>
+      <c r="X10" s="63">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="43"/>
+    </row>
+    <row r="11" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O11" s="12"/>
+      <c r="P11" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="43"/>
+    </row>
+    <row r="12" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="O12" s="13"/>
+      <c r="P12" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="47"/>
+    </row>
+    <row r="13" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O13" s="11">
+        <v>4</v>
+      </c>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="39"/>
+    </row>
+    <row r="14" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O14" s="12"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="V14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="43"/>
+    </row>
+    <row r="15" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="O15" s="13"/>
+      <c r="P15" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="47"/>
+    </row>
+    <row r="16" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O16" s="11">
+        <v>5</v>
+      </c>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="31"/>
+    </row>
+    <row r="17" spans="15:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O17" s="12"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="X17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="23"/>
+    </row>
+    <row r="18" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O18" s="12"/>
+      <c r="P18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="23"/>
+    </row>
+    <row r="19" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="12"/>
+      <c r="P19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="23"/>
+    </row>
+    <row r="20" spans="15:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="13"/>
+      <c r="P20" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="Q13:X13"/>
+    <mergeCell ref="O16:O20"/>
+    <mergeCell ref="Q16:X16"/>
+    <mergeCell ref="P20:AC20"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="O1:AC1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="Q6:X6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i2c_sequence.xlsx
+++ b/assets/i2c_sequence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\github\ESP-Nodes\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D0964D-1529-4AE3-8E8B-BEC6B30DF0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18147F1-F4B6-41F2-BD2A-260B788FEAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5739131D-9332-445A-8275-46E1CAAC2C2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5739131D-9332-445A-8275-46E1CAAC2C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="I2C_Write" sheetId="1" r:id="rId1"/>
@@ -847,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -879,29 +879,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -929,17 +908,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -985,16 +955,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1008,6 +969,42 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1352,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EDB4F9-0EC2-45D5-9EF0-F59D59B31F16}">
   <dimension ref="C1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -1368,77 +1365,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="10"/>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
     </row>
     <row r="2" spans="3:29" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="11">
-        <v>1</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="36" t="s">
+      <c r="O2" s="55">
+        <v>1</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="49" t="s">
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="51"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="41"/>
     </row>
     <row r="3" spans="3:29" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="6" t="s">
@@ -1471,112 +1468,112 @@
       <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="59">
-        <v>1</v>
-      </c>
-      <c r="R3" s="59">
-        <v>1</v>
-      </c>
-      <c r="S3" s="59">
-        <v>1</v>
-      </c>
-      <c r="T3" s="59">
-        <v>0</v>
-      </c>
-      <c r="U3" s="59">
-        <v>1</v>
-      </c>
-      <c r="V3" s="59">
-        <v>1</v>
-      </c>
-      <c r="W3" s="59">
-        <v>0</v>
-      </c>
-      <c r="X3" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="61" t="s">
+      <c r="O3" s="56"/>
+      <c r="P3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="47">
+        <v>1</v>
+      </c>
+      <c r="R3" s="47">
+        <v>1</v>
+      </c>
+      <c r="S3" s="47">
+        <v>1</v>
+      </c>
+      <c r="T3" s="47">
+        <v>0</v>
+      </c>
+      <c r="U3" s="47">
+        <v>1</v>
+      </c>
+      <c r="V3" s="47">
+        <v>1</v>
+      </c>
+      <c r="W3" s="47">
+        <v>0</v>
+      </c>
+      <c r="X3" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="53"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="43"/>
     </row>
     <row r="4" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O4" s="12"/>
-      <c r="P4" s="54" t="s">
+      <c r="O4" s="56"/>
+      <c r="P4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="43"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="33"/>
     </row>
     <row r="5" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O5" s="13"/>
-      <c r="P5" s="44" t="s">
+      <c r="O5" s="57"/>
+      <c r="P5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="47"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="37"/>
     </row>
     <row r="6" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="3"/>
-      <c r="O6" s="11">
+      <c r="O6" s="55">
         <v>2</v>
       </c>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="36" t="s">
+      <c r="P6" s="26"/>
+      <c r="Q6" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="39"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="29"/>
     </row>
     <row r="7" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="3"/>
@@ -1607,99 +1604,99 @@
       <c r="L7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="64">
-        <v>1</v>
-      </c>
-      <c r="R7" s="64">
-        <v>1</v>
-      </c>
-      <c r="S7" s="64">
-        <v>0</v>
-      </c>
-      <c r="T7" s="64">
-        <v>1</v>
-      </c>
-      <c r="U7" s="64">
-        <v>0</v>
-      </c>
-      <c r="V7" s="64">
-        <v>0</v>
-      </c>
-      <c r="W7" s="64">
-        <v>0</v>
-      </c>
-      <c r="X7" s="64">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="63" t="s">
+      <c r="O7" s="56"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="51">
+        <v>1</v>
+      </c>
+      <c r="R7" s="51">
+        <v>1</v>
+      </c>
+      <c r="S7" s="51">
+        <v>0</v>
+      </c>
+      <c r="T7" s="51">
+        <v>1</v>
+      </c>
+      <c r="U7" s="51">
+        <v>0</v>
+      </c>
+      <c r="V7" s="51">
+        <v>0</v>
+      </c>
+      <c r="W7" s="51">
+        <v>0</v>
+      </c>
+      <c r="X7" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="43"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="33"/>
     </row>
     <row r="8" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O8" s="13"/>
-      <c r="P8" s="44" t="s">
+      <c r="O8" s="57"/>
+      <c r="P8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="47"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="37"/>
     </row>
     <row r="9" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="3"/>
       <c r="M9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="11">
+      <c r="O9" s="55">
         <v>3</v>
       </c>
-      <c r="P9" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="36" t="s">
+      <c r="P9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="49" t="s">
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="39"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="29"/>
     </row>
     <row r="10" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="3"/>
@@ -1733,271 +1730,271 @@
       <c r="M10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="64">
-        <v>1</v>
-      </c>
-      <c r="R10" s="64">
-        <v>1</v>
-      </c>
-      <c r="S10" s="64">
-        <v>1</v>
-      </c>
-      <c r="T10" s="64">
-        <v>0</v>
-      </c>
-      <c r="U10" s="64">
-        <v>1</v>
-      </c>
-      <c r="V10" s="64">
-        <v>1</v>
-      </c>
-      <c r="W10" s="64">
-        <v>1</v>
-      </c>
-      <c r="X10" s="63">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="63" t="s">
+      <c r="O10" s="56"/>
+      <c r="P10" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="51">
+        <v>1</v>
+      </c>
+      <c r="R10" s="51">
+        <v>1</v>
+      </c>
+      <c r="S10" s="51">
+        <v>1</v>
+      </c>
+      <c r="T10" s="51">
+        <v>0</v>
+      </c>
+      <c r="U10" s="51">
+        <v>1</v>
+      </c>
+      <c r="V10" s="51">
+        <v>1</v>
+      </c>
+      <c r="W10" s="51">
+        <v>1</v>
+      </c>
+      <c r="X10" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="43"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="33"/>
     </row>
     <row r="11" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O11" s="12"/>
-      <c r="P11" s="54" t="s">
+      <c r="O11" s="56"/>
+      <c r="P11" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="43"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="33"/>
     </row>
     <row r="12" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O12" s="13"/>
-      <c r="P12" s="44" t="s">
+      <c r="O12" s="57"/>
+      <c r="P12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="47"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="37"/>
     </row>
     <row r="13" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O13" s="11">
+      <c r="O13" s="55">
         <v>4</v>
       </c>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="36" t="s">
+      <c r="P13" s="28"/>
+      <c r="Q13" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="39"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="29"/>
     </row>
     <row r="14" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O14" s="12"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="R14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="T14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="U14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="V14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="W14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="X14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y14" s="61" t="s">
+      <c r="O14" s="56"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="V14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="43"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="33"/>
     </row>
     <row r="15" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O15" s="13"/>
-      <c r="P15" s="44" t="s">
+      <c r="O15" s="57"/>
+      <c r="P15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="47"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="37"/>
     </row>
     <row r="16" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O16" s="11">
+      <c r="O16" s="55">
         <v>5</v>
       </c>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="36" t="s">
+      <c r="P16" s="28"/>
+      <c r="Q16" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="56" t="s">
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="39"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="29"/>
     </row>
     <row r="17" spans="15:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O17" s="12"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="R17" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="T17" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="U17" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="V17" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="W17" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="X17" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y17" s="61" t="s">
+      <c r="O17" s="56"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="X17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Z17" s="63" t="s">
+      <c r="Z17" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="43"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="33"/>
     </row>
     <row r="18" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O18" s="12"/>
-      <c r="P18" s="54" t="s">
+      <c r="O18" s="56"/>
+      <c r="P18" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="43"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="33"/>
     </row>
     <row r="19" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O19" s="12"/>
-      <c r="P19" s="54" t="s">
+      <c r="O19" s="56"/>
+      <c r="P19" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="43"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="33"/>
     </row>
     <row r="20" spans="15:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O20" s="13"/>
-      <c r="P20" s="57" t="s">
+      <c r="O20" s="57"/>
+      <c r="P20" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="58"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2026,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1609D8-1CB2-4EB3-9573-4FD3DB83D61B}">
   <dimension ref="C1:AC20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2042,77 +2039,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="10"/>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
     </row>
     <row r="2" spans="3:29" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="11">
-        <v>1</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="36" t="s">
+      <c r="O2" s="55">
+        <v>1</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="49" t="s">
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="51"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="41"/>
     </row>
     <row r="3" spans="3:29" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="6" t="s">
@@ -2145,112 +2142,112 @@
       <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="59">
-        <v>1</v>
-      </c>
-      <c r="R3" s="59">
-        <v>1</v>
-      </c>
-      <c r="S3" s="59">
-        <v>1</v>
-      </c>
-      <c r="T3" s="59">
-        <v>0</v>
-      </c>
-      <c r="U3" s="59">
-        <v>1</v>
-      </c>
-      <c r="V3" s="59">
-        <v>1</v>
-      </c>
-      <c r="W3" s="59">
-        <v>0</v>
-      </c>
-      <c r="X3" s="60">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="61" t="s">
+      <c r="O3" s="56"/>
+      <c r="P3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="51">
+        <v>1</v>
+      </c>
+      <c r="R3" s="51">
+        <v>1</v>
+      </c>
+      <c r="S3" s="51">
+        <v>1</v>
+      </c>
+      <c r="T3" s="51">
+        <v>0</v>
+      </c>
+      <c r="U3" s="51">
+        <v>1</v>
+      </c>
+      <c r="V3" s="51">
+        <v>1</v>
+      </c>
+      <c r="W3" s="51">
+        <v>0</v>
+      </c>
+      <c r="X3" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="53"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="43"/>
     </row>
     <row r="4" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O4" s="12"/>
-      <c r="P4" s="54" t="s">
+      <c r="O4" s="56"/>
+      <c r="P4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="43"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="33"/>
     </row>
     <row r="5" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O5" s="13"/>
-      <c r="P5" s="44" t="s">
+      <c r="O5" s="57"/>
+      <c r="P5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="47"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="37"/>
     </row>
     <row r="6" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="3"/>
-      <c r="O6" s="11">
+      <c r="O6" s="55">
         <v>2</v>
       </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="18" t="s">
+      <c r="P6" s="21"/>
+      <c r="Q6" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="31"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="24"/>
     </row>
     <row r="7" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="3"/>
@@ -2281,99 +2278,99 @@
       <c r="L7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="59">
-        <v>1</v>
-      </c>
-      <c r="R7" s="59">
-        <v>1</v>
-      </c>
-      <c r="S7" s="59">
-        <v>0</v>
-      </c>
-      <c r="T7" s="59">
-        <v>1</v>
-      </c>
-      <c r="U7" s="59">
-        <v>0</v>
-      </c>
-      <c r="V7" s="59">
-        <v>0</v>
-      </c>
-      <c r="W7" s="59">
-        <v>0</v>
-      </c>
-      <c r="X7" s="59">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="61" t="s">
+      <c r="O7" s="56"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="47">
+        <v>1</v>
+      </c>
+      <c r="R7" s="47">
+        <v>1</v>
+      </c>
+      <c r="S7" s="47">
+        <v>0</v>
+      </c>
+      <c r="T7" s="47">
+        <v>1</v>
+      </c>
+      <c r="U7" s="47">
+        <v>0</v>
+      </c>
+      <c r="V7" s="47">
+        <v>0</v>
+      </c>
+      <c r="W7" s="47">
+        <v>0</v>
+      </c>
+      <c r="X7" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="23"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="16"/>
     </row>
     <row r="8" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O8" s="13"/>
-      <c r="P8" s="24" t="s">
+      <c r="O8" s="57"/>
+      <c r="P8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="27"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="20"/>
     </row>
     <row r="9" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="3"/>
       <c r="M9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="11">
+      <c r="O9" s="55">
         <v>3</v>
       </c>
-      <c r="P9" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="36" t="s">
+      <c r="P9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="49" t="s">
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="39"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="29"/>
     </row>
     <row r="10" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="3"/>
@@ -2407,279 +2404,274 @@
       <c r="M10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="64">
-        <v>1</v>
-      </c>
-      <c r="R10" s="64">
-        <v>1</v>
-      </c>
-      <c r="S10" s="64">
-        <v>1</v>
-      </c>
-      <c r="T10" s="64">
-        <v>0</v>
-      </c>
-      <c r="U10" s="64">
-        <v>1</v>
-      </c>
-      <c r="V10" s="64">
-        <v>1</v>
-      </c>
-      <c r="W10" s="64">
-        <v>1</v>
-      </c>
-      <c r="X10" s="63">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="63" t="s">
+      <c r="O10" s="56"/>
+      <c r="P10" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="51">
+        <v>1</v>
+      </c>
+      <c r="R10" s="51">
+        <v>1</v>
+      </c>
+      <c r="S10" s="51">
+        <v>1</v>
+      </c>
+      <c r="T10" s="51">
+        <v>0</v>
+      </c>
+      <c r="U10" s="51">
+        <v>1</v>
+      </c>
+      <c r="V10" s="51">
+        <v>1</v>
+      </c>
+      <c r="W10" s="51">
+        <v>1</v>
+      </c>
+      <c r="X10" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="43"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="33"/>
     </row>
     <row r="11" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O11" s="12"/>
-      <c r="P11" s="54" t="s">
+      <c r="O11" s="56"/>
+      <c r="P11" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="43"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="33"/>
     </row>
     <row r="12" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O12" s="13"/>
-      <c r="P12" s="44" t="s">
+      <c r="O12" s="57"/>
+      <c r="P12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="47"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="37"/>
     </row>
     <row r="13" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O13" s="11">
+      <c r="O13" s="55">
         <v>4</v>
       </c>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="36" t="s">
+      <c r="P13" s="28"/>
+      <c r="Q13" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="39"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="29"/>
     </row>
     <row r="14" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O14" s="12"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="R14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="T14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="U14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="V14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="W14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="X14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y14" s="61" t="s">
+      <c r="O14" s="56"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="V14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="43"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="33"/>
     </row>
     <row r="15" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O15" s="13"/>
-      <c r="P15" s="44" t="s">
+      <c r="O15" s="57"/>
+      <c r="P15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="47"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="37"/>
     </row>
     <row r="16" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O16" s="11">
+      <c r="O16" s="55">
         <v>5</v>
       </c>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="36" t="s">
+      <c r="P16" s="28"/>
+      <c r="Q16" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="56" t="s">
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="39"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="29"/>
     </row>
     <row r="17" spans="15:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O17" s="12"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="R17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="T17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="U17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="V17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="W17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="X17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y17" s="63" t="s">
+      <c r="O17" s="56"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="X17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="Z17" s="63" t="s">
+      <c r="Z17" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="43"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="33"/>
     </row>
     <row r="18" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O18" s="12"/>
-      <c r="P18" s="54" t="s">
+      <c r="O18" s="56"/>
+      <c r="P18" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="43"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="33"/>
     </row>
     <row r="19" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O19" s="12"/>
-      <c r="P19" s="54" t="s">
+      <c r="O19" s="56"/>
+      <c r="P19" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="43"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="33"/>
     </row>
     <row r="20" spans="15:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O20" s="13"/>
-      <c r="P20" s="57" t="s">
+      <c r="O20" s="57"/>
+      <c r="P20" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="58"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="O13:O15"/>
-    <mergeCell ref="Q13:X13"/>
     <mergeCell ref="O16:O20"/>
     <mergeCell ref="Q16:X16"/>
     <mergeCell ref="P20:AC20"/>
@@ -2691,6 +2683,11 @@
     <mergeCell ref="D6:K6"/>
     <mergeCell ref="O6:O8"/>
     <mergeCell ref="Q6:X6"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="Q13:X13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2716,77 +2713,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="10"/>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
     </row>
     <row r="2" spans="3:29" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="11">
-        <v>1</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="36" t="s">
+      <c r="O2" s="55">
+        <v>1</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="49" t="s">
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="51"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="41"/>
     </row>
     <row r="3" spans="3:29" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="6" t="s">
@@ -2819,112 +2816,112 @@
       <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="64">
-        <v>1</v>
-      </c>
-      <c r="R3" s="64">
-        <v>1</v>
-      </c>
-      <c r="S3" s="64">
-        <v>1</v>
-      </c>
-      <c r="T3" s="64">
-        <v>0</v>
-      </c>
-      <c r="U3" s="64">
-        <v>1</v>
-      </c>
-      <c r="V3" s="64">
-        <v>1</v>
-      </c>
-      <c r="W3" s="64">
-        <v>0</v>
-      </c>
-      <c r="X3" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="63" t="s">
+      <c r="O3" s="56"/>
+      <c r="P3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="51">
+        <v>1</v>
+      </c>
+      <c r="R3" s="51">
+        <v>1</v>
+      </c>
+      <c r="S3" s="51">
+        <v>1</v>
+      </c>
+      <c r="T3" s="51">
+        <v>0</v>
+      </c>
+      <c r="U3" s="51">
+        <v>1</v>
+      </c>
+      <c r="V3" s="51">
+        <v>1</v>
+      </c>
+      <c r="W3" s="51">
+        <v>0</v>
+      </c>
+      <c r="X3" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="53"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="43"/>
     </row>
     <row r="4" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O4" s="12"/>
-      <c r="P4" s="54" t="s">
+      <c r="O4" s="56"/>
+      <c r="P4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="43"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="33"/>
     </row>
     <row r="5" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O5" s="13"/>
-      <c r="P5" s="44" t="s">
+      <c r="O5" s="57"/>
+      <c r="P5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="47"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="37"/>
     </row>
     <row r="6" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="3"/>
-      <c r="O6" s="11">
+      <c r="O6" s="55">
         <v>2</v>
       </c>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="36" t="s">
+      <c r="P6" s="26"/>
+      <c r="Q6" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="39"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="29"/>
     </row>
     <row r="7" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="3"/>
@@ -2955,99 +2952,99 @@
       <c r="L7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="40">
-        <v>1</v>
-      </c>
-      <c r="R7" s="40">
-        <v>1</v>
-      </c>
-      <c r="S7" s="40">
-        <v>0</v>
-      </c>
-      <c r="T7" s="40">
-        <v>1</v>
-      </c>
-      <c r="U7" s="40">
-        <v>0</v>
-      </c>
-      <c r="V7" s="40">
-        <v>0</v>
-      </c>
-      <c r="W7" s="40">
-        <v>0</v>
-      </c>
-      <c r="X7" s="40">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="41" t="s">
+      <c r="O7" s="56"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="30">
+        <v>1</v>
+      </c>
+      <c r="R7" s="30">
+        <v>1</v>
+      </c>
+      <c r="S7" s="30">
+        <v>0</v>
+      </c>
+      <c r="T7" s="30">
+        <v>1</v>
+      </c>
+      <c r="U7" s="30">
+        <v>0</v>
+      </c>
+      <c r="V7" s="30">
+        <v>0</v>
+      </c>
+      <c r="W7" s="30">
+        <v>0</v>
+      </c>
+      <c r="X7" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="43"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="33"/>
     </row>
     <row r="8" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O8" s="13"/>
-      <c r="P8" s="44" t="s">
+      <c r="O8" s="57"/>
+      <c r="P8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="47"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="37"/>
     </row>
     <row r="9" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="3"/>
       <c r="M9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="11">
+      <c r="O9" s="55">
         <v>3</v>
       </c>
-      <c r="P9" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="18" t="s">
+      <c r="P9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="19" t="s">
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="31"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="24"/>
     </row>
     <row r="10" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="3"/>
@@ -3081,279 +3078,274 @@
       <c r="M10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="64">
-        <v>1</v>
-      </c>
-      <c r="R10" s="64">
-        <v>1</v>
-      </c>
-      <c r="S10" s="64">
-        <v>1</v>
-      </c>
-      <c r="T10" s="64">
-        <v>0</v>
-      </c>
-      <c r="U10" s="64">
-        <v>1</v>
-      </c>
-      <c r="V10" s="64">
-        <v>1</v>
-      </c>
-      <c r="W10" s="64">
-        <v>1</v>
-      </c>
-      <c r="X10" s="63">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="63" t="s">
+      <c r="O10" s="56"/>
+      <c r="P10" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="51">
+        <v>1</v>
+      </c>
+      <c r="R10" s="51">
+        <v>1</v>
+      </c>
+      <c r="S10" s="51">
+        <v>1</v>
+      </c>
+      <c r="T10" s="51">
+        <v>0</v>
+      </c>
+      <c r="U10" s="51">
+        <v>1</v>
+      </c>
+      <c r="V10" s="51">
+        <v>1</v>
+      </c>
+      <c r="W10" s="51">
+        <v>1</v>
+      </c>
+      <c r="X10" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="23"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="16"/>
     </row>
     <row r="11" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O11" s="12"/>
-      <c r="P11" s="20" t="s">
+      <c r="O11" s="56"/>
+      <c r="P11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="23"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="16"/>
     </row>
     <row r="12" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O12" s="13"/>
-      <c r="P12" s="24" t="s">
+      <c r="O12" s="57"/>
+      <c r="P12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="27"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="20"/>
     </row>
     <row r="13" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O13" s="11">
+      <c r="O13" s="55">
         <v>4</v>
       </c>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="36" t="s">
+      <c r="P13" s="28"/>
+      <c r="Q13" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="39"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="29"/>
     </row>
     <row r="14" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O14" s="12"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="R14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="T14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="U14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="V14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="W14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="X14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y14" s="63" t="s">
+      <c r="O14" s="56"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="V14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="43"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="33"/>
     </row>
     <row r="15" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O15" s="13"/>
-      <c r="P15" s="44" t="s">
+      <c r="O15" s="57"/>
+      <c r="P15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="47"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="37"/>
     </row>
     <row r="16" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O16" s="11">
+      <c r="O16" s="55">
         <v>5</v>
       </c>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="36" t="s">
+      <c r="P16" s="28"/>
+      <c r="Q16" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="56" t="s">
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="39"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="29"/>
     </row>
     <row r="17" spans="15:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O17" s="12"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="R17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="T17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="U17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="V17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="W17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="X17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y17" s="63" t="s">
+      <c r="O17" s="56"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="X17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="Z17" s="63" t="s">
+      <c r="Z17" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="43"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="33"/>
     </row>
     <row r="18" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O18" s="12"/>
-      <c r="P18" s="54" t="s">
+      <c r="O18" s="56"/>
+      <c r="P18" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="43"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="33"/>
     </row>
     <row r="19" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O19" s="12"/>
-      <c r="P19" s="54" t="s">
+      <c r="O19" s="56"/>
+      <c r="P19" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="43"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="33"/>
     </row>
     <row r="20" spans="15:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O20" s="13"/>
-      <c r="P20" s="57" t="s">
+      <c r="O20" s="57"/>
+      <c r="P20" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="58"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="O13:O15"/>
-    <mergeCell ref="Q13:X13"/>
     <mergeCell ref="O16:O20"/>
     <mergeCell ref="Q16:X16"/>
     <mergeCell ref="P20:AC20"/>
@@ -3365,6 +3357,11 @@
     <mergeCell ref="D6:K6"/>
     <mergeCell ref="O6:O8"/>
     <mergeCell ref="Q6:X6"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="Q13:X13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3390,77 +3387,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="10"/>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
     </row>
     <row r="2" spans="3:29" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="11">
-        <v>1</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="36" t="s">
+      <c r="O2" s="55">
+        <v>1</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="49" t="s">
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="51"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="41"/>
     </row>
     <row r="3" spans="3:29" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="6" t="s">
@@ -3493,112 +3490,112 @@
       <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="64">
-        <v>1</v>
-      </c>
-      <c r="R3" s="64">
-        <v>1</v>
-      </c>
-      <c r="S3" s="64">
-        <v>1</v>
-      </c>
-      <c r="T3" s="64">
-        <v>0</v>
-      </c>
-      <c r="U3" s="64">
-        <v>1</v>
-      </c>
-      <c r="V3" s="64">
-        <v>1</v>
-      </c>
-      <c r="W3" s="64">
-        <v>0</v>
-      </c>
-      <c r="X3" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="63" t="s">
+      <c r="O3" s="56"/>
+      <c r="P3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="51">
+        <v>1</v>
+      </c>
+      <c r="R3" s="51">
+        <v>1</v>
+      </c>
+      <c r="S3" s="51">
+        <v>1</v>
+      </c>
+      <c r="T3" s="51">
+        <v>0</v>
+      </c>
+      <c r="U3" s="51">
+        <v>1</v>
+      </c>
+      <c r="V3" s="51">
+        <v>1</v>
+      </c>
+      <c r="W3" s="51">
+        <v>0</v>
+      </c>
+      <c r="X3" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="53"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="43"/>
     </row>
     <row r="4" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O4" s="12"/>
-      <c r="P4" s="54" t="s">
+      <c r="O4" s="56"/>
+      <c r="P4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="43"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="33"/>
     </row>
     <row r="5" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O5" s="13"/>
-      <c r="P5" s="44" t="s">
+      <c r="O5" s="57"/>
+      <c r="P5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="47"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="37"/>
     </row>
     <row r="6" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="3"/>
-      <c r="O6" s="11">
+      <c r="O6" s="55">
         <v>2</v>
       </c>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="36" t="s">
+      <c r="P6" s="26"/>
+      <c r="Q6" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="39"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="29"/>
     </row>
     <row r="7" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="3"/>
@@ -3629,99 +3626,99 @@
       <c r="L7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="64">
-        <v>1</v>
-      </c>
-      <c r="R7" s="64">
-        <v>1</v>
-      </c>
-      <c r="S7" s="64">
-        <v>0</v>
-      </c>
-      <c r="T7" s="64">
-        <v>1</v>
-      </c>
-      <c r="U7" s="64">
-        <v>0</v>
-      </c>
-      <c r="V7" s="64">
-        <v>0</v>
-      </c>
-      <c r="W7" s="64">
-        <v>0</v>
-      </c>
-      <c r="X7" s="64">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="63" t="s">
+      <c r="O7" s="56"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="51">
+        <v>1</v>
+      </c>
+      <c r="R7" s="51">
+        <v>1</v>
+      </c>
+      <c r="S7" s="51">
+        <v>0</v>
+      </c>
+      <c r="T7" s="51">
+        <v>1</v>
+      </c>
+      <c r="U7" s="51">
+        <v>0</v>
+      </c>
+      <c r="V7" s="51">
+        <v>0</v>
+      </c>
+      <c r="W7" s="51">
+        <v>0</v>
+      </c>
+      <c r="X7" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="43"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="33"/>
     </row>
     <row r="8" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O8" s="13"/>
-      <c r="P8" s="44" t="s">
+      <c r="O8" s="57"/>
+      <c r="P8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="47"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="37"/>
     </row>
     <row r="9" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="3"/>
       <c r="M9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="11">
+      <c r="O9" s="55">
         <v>3</v>
       </c>
-      <c r="P9" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="36" t="s">
+      <c r="P9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="49" t="s">
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="39"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="29"/>
     </row>
     <row r="10" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="3"/>
@@ -3755,279 +3752,274 @@
       <c r="M10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="64">
-        <v>1</v>
-      </c>
-      <c r="R10" s="64">
-        <v>1</v>
-      </c>
-      <c r="S10" s="64">
-        <v>1</v>
-      </c>
-      <c r="T10" s="64">
-        <v>0</v>
-      </c>
-      <c r="U10" s="64">
-        <v>1</v>
-      </c>
-      <c r="V10" s="64">
-        <v>1</v>
-      </c>
-      <c r="W10" s="64">
-        <v>1</v>
-      </c>
-      <c r="X10" s="63">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="63" t="s">
+      <c r="O10" s="56"/>
+      <c r="P10" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="51">
+        <v>1</v>
+      </c>
+      <c r="R10" s="51">
+        <v>1</v>
+      </c>
+      <c r="S10" s="51">
+        <v>1</v>
+      </c>
+      <c r="T10" s="51">
+        <v>0</v>
+      </c>
+      <c r="U10" s="51">
+        <v>1</v>
+      </c>
+      <c r="V10" s="51">
+        <v>1</v>
+      </c>
+      <c r="W10" s="51">
+        <v>1</v>
+      </c>
+      <c r="X10" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="43"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="33"/>
     </row>
     <row r="11" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O11" s="12"/>
-      <c r="P11" s="54" t="s">
+      <c r="O11" s="56"/>
+      <c r="P11" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="43"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="33"/>
     </row>
     <row r="12" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O12" s="13"/>
-      <c r="P12" s="44" t="s">
+      <c r="O12" s="57"/>
+      <c r="P12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="47"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="37"/>
     </row>
     <row r="13" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O13" s="11">
+      <c r="O13" s="55">
         <v>4</v>
       </c>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="18" t="s">
+      <c r="P13" s="23"/>
+      <c r="Q13" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="31"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="24"/>
     </row>
     <row r="14" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O14" s="12"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="R14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="T14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="U14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="V14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="W14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="X14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y14" s="63" t="s">
+      <c r="O14" s="56"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="V14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="23"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="16"/>
     </row>
     <row r="15" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O15" s="13"/>
-      <c r="P15" s="24" t="s">
+      <c r="O15" s="57"/>
+      <c r="P15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="27"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="20"/>
     </row>
     <row r="16" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O16" s="11">
+      <c r="O16" s="55">
         <v>5</v>
       </c>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="36" t="s">
+      <c r="P16" s="28"/>
+      <c r="Q16" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="56" t="s">
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="39"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="29"/>
     </row>
     <row r="17" spans="15:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O17" s="12"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="R17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="T17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="U17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="V17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="W17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="X17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y17" s="63" t="s">
+      <c r="O17" s="56"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="X17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="Z17" s="63" t="s">
+      <c r="Z17" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="43"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="33"/>
     </row>
     <row r="18" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O18" s="12"/>
-      <c r="P18" s="54" t="s">
+      <c r="O18" s="56"/>
+      <c r="P18" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="43"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="33"/>
     </row>
     <row r="19" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O19" s="12"/>
-      <c r="P19" s="54" t="s">
+      <c r="O19" s="56"/>
+      <c r="P19" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="43"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="33"/>
     </row>
     <row r="20" spans="15:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O20" s="13"/>
-      <c r="P20" s="57" t="s">
+      <c r="O20" s="57"/>
+      <c r="P20" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="58"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="O13:O15"/>
-    <mergeCell ref="Q13:X13"/>
     <mergeCell ref="O16:O20"/>
     <mergeCell ref="Q16:X16"/>
     <mergeCell ref="P20:AC20"/>
@@ -4039,6 +4031,11 @@
     <mergeCell ref="D6:K6"/>
     <mergeCell ref="O6:O8"/>
     <mergeCell ref="Q6:X6"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="Q13:X13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4064,77 +4061,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="10"/>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
     </row>
     <row r="2" spans="3:29" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="11">
-        <v>1</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="36" t="s">
+      <c r="O2" s="55">
+        <v>1</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="49" t="s">
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="51"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="41"/>
     </row>
     <row r="3" spans="3:29" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="6" t="s">
@@ -4167,112 +4164,112 @@
       <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="64">
-        <v>1</v>
-      </c>
-      <c r="R3" s="64">
-        <v>1</v>
-      </c>
-      <c r="S3" s="64">
-        <v>1</v>
-      </c>
-      <c r="T3" s="64">
-        <v>0</v>
-      </c>
-      <c r="U3" s="64">
-        <v>1</v>
-      </c>
-      <c r="V3" s="64">
-        <v>1</v>
-      </c>
-      <c r="W3" s="64">
-        <v>0</v>
-      </c>
-      <c r="X3" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="63" t="s">
+      <c r="O3" s="56"/>
+      <c r="P3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="51">
+        <v>1</v>
+      </c>
+      <c r="R3" s="51">
+        <v>1</v>
+      </c>
+      <c r="S3" s="51">
+        <v>1</v>
+      </c>
+      <c r="T3" s="51">
+        <v>0</v>
+      </c>
+      <c r="U3" s="51">
+        <v>1</v>
+      </c>
+      <c r="V3" s="51">
+        <v>1</v>
+      </c>
+      <c r="W3" s="51">
+        <v>0</v>
+      </c>
+      <c r="X3" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="53"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="43"/>
     </row>
     <row r="4" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O4" s="12"/>
-      <c r="P4" s="54" t="s">
+      <c r="O4" s="56"/>
+      <c r="P4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="43"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="33"/>
     </row>
     <row r="5" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O5" s="13"/>
-      <c r="P5" s="44" t="s">
+      <c r="O5" s="57"/>
+      <c r="P5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="47"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="37"/>
     </row>
     <row r="6" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="3"/>
-      <c r="O6" s="11">
+      <c r="O6" s="55">
         <v>2</v>
       </c>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="36" t="s">
+      <c r="P6" s="26"/>
+      <c r="Q6" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="39"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="29"/>
     </row>
     <row r="7" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="3"/>
@@ -4303,99 +4300,99 @@
       <c r="L7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="64">
-        <v>1</v>
-      </c>
-      <c r="R7" s="64">
-        <v>1</v>
-      </c>
-      <c r="S7" s="64">
-        <v>0</v>
-      </c>
-      <c r="T7" s="64">
-        <v>1</v>
-      </c>
-      <c r="U7" s="64">
-        <v>0</v>
-      </c>
-      <c r="V7" s="64">
-        <v>0</v>
-      </c>
-      <c r="W7" s="64">
-        <v>0</v>
-      </c>
-      <c r="X7" s="64">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="63" t="s">
+      <c r="O7" s="56"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="51">
+        <v>1</v>
+      </c>
+      <c r="R7" s="51">
+        <v>1</v>
+      </c>
+      <c r="S7" s="51">
+        <v>0</v>
+      </c>
+      <c r="T7" s="51">
+        <v>1</v>
+      </c>
+      <c r="U7" s="51">
+        <v>0</v>
+      </c>
+      <c r="V7" s="51">
+        <v>0</v>
+      </c>
+      <c r="W7" s="51">
+        <v>0</v>
+      </c>
+      <c r="X7" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="43"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="33"/>
     </row>
     <row r="8" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O8" s="13"/>
-      <c r="P8" s="44" t="s">
+      <c r="O8" s="57"/>
+      <c r="P8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="47"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="37"/>
     </row>
     <row r="9" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="3"/>
       <c r="M9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="11">
+      <c r="O9" s="55">
         <v>3</v>
       </c>
-      <c r="P9" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="36" t="s">
+      <c r="P9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="49" t="s">
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="39"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="29"/>
     </row>
     <row r="10" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="3"/>
@@ -4429,279 +4426,274 @@
       <c r="M10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="64">
-        <v>1</v>
-      </c>
-      <c r="R10" s="64">
-        <v>1</v>
-      </c>
-      <c r="S10" s="64">
-        <v>1</v>
-      </c>
-      <c r="T10" s="64">
-        <v>0</v>
-      </c>
-      <c r="U10" s="64">
-        <v>1</v>
-      </c>
-      <c r="V10" s="64">
-        <v>1</v>
-      </c>
-      <c r="W10" s="64">
-        <v>1</v>
-      </c>
-      <c r="X10" s="63">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="63" t="s">
+      <c r="O10" s="56"/>
+      <c r="P10" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="51">
+        <v>1</v>
+      </c>
+      <c r="R10" s="51">
+        <v>1</v>
+      </c>
+      <c r="S10" s="51">
+        <v>1</v>
+      </c>
+      <c r="T10" s="51">
+        <v>0</v>
+      </c>
+      <c r="U10" s="51">
+        <v>1</v>
+      </c>
+      <c r="V10" s="51">
+        <v>1</v>
+      </c>
+      <c r="W10" s="51">
+        <v>1</v>
+      </c>
+      <c r="X10" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="43"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="33"/>
     </row>
     <row r="11" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O11" s="12"/>
-      <c r="P11" s="54" t="s">
+      <c r="O11" s="56"/>
+      <c r="P11" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="43"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="33"/>
     </row>
     <row r="12" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O12" s="13"/>
-      <c r="P12" s="44" t="s">
+      <c r="O12" s="57"/>
+      <c r="P12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="47"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="37"/>
     </row>
     <row r="13" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O13" s="11">
+      <c r="O13" s="55">
         <v>4</v>
       </c>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="36" t="s">
+      <c r="P13" s="28"/>
+      <c r="Q13" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="39"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="29"/>
     </row>
     <row r="14" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O14" s="12"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="R14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="T14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="U14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="V14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="W14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="X14" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y14" s="63" t="s">
+      <c r="O14" s="56"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="V14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="43"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="33"/>
     </row>
     <row r="15" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O15" s="13"/>
-      <c r="P15" s="44" t="s">
+      <c r="O15" s="57"/>
+      <c r="P15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="47"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="37"/>
     </row>
     <row r="16" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O16" s="11">
+      <c r="O16" s="55">
         <v>5</v>
       </c>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="18" t="s">
+      <c r="P16" s="23"/>
+      <c r="Q16" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="32" t="s">
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="31"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="24"/>
     </row>
     <row r="17" spans="15:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O17" s="12"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="R17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="T17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="U17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="V17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="W17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="X17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y17" s="63" t="s">
+      <c r="O17" s="56"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="X17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="Z17" s="63" t="s">
+      <c r="Z17" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="23"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="16"/>
     </row>
     <row r="18" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O18" s="12"/>
-      <c r="P18" s="20" t="s">
+      <c r="O18" s="56"/>
+      <c r="P18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="23"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="16"/>
     </row>
     <row r="19" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O19" s="12"/>
-      <c r="P19" s="20" t="s">
+      <c r="O19" s="56"/>
+      <c r="P19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="23"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="16"/>
     </row>
     <row r="20" spans="15:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O20" s="13"/>
-      <c r="P20" s="33" t="s">
+      <c r="O20" s="57"/>
+      <c r="P20" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="34"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="O13:O15"/>
-    <mergeCell ref="Q13:X13"/>
     <mergeCell ref="O16:O20"/>
     <mergeCell ref="Q16:X16"/>
     <mergeCell ref="P20:AC20"/>
@@ -4713,6 +4705,11 @@
     <mergeCell ref="D6:K6"/>
     <mergeCell ref="O6:O8"/>
     <mergeCell ref="Q6:X6"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="Q13:X13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i2c_sequence.xlsx
+++ b/assets/i2c_sequence.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\github\ESP-Nodes\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18147F1-F4B6-41F2-BD2A-260B788FEAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D26A53-3FEE-415B-BDFC-3944E8000E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5739131D-9332-445A-8275-46E1CAAC2C2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{5739131D-9332-445A-8275-46E1CAAC2C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="I2C_Write" sheetId="1" r:id="rId1"/>
-    <sheet name="I2C_Write (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="I2C_Write (3)" sheetId="3" r:id="rId3"/>
-    <sheet name="I2C_Write (4)" sheetId="4" r:id="rId4"/>
-    <sheet name="I2C_Write (5)" sheetId="5" r:id="rId5"/>
+    <sheet name="I2C_Write (1)" sheetId="6" r:id="rId2"/>
+    <sheet name="I2C_Write (2)" sheetId="2" r:id="rId3"/>
+    <sheet name="I2C_Write (3)" sheetId="3" r:id="rId4"/>
+    <sheet name="I2C_Write (4)" sheetId="4" r:id="rId5"/>
+    <sheet name="I2C_Write (5)" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="24">
   <si>
     <t>START</t>
   </si>
@@ -847,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -970,13 +971,10 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,14 +986,17 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1006,6 +1007,30 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,8 +1039,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDDFFDD"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFDDFFDD"/>
       <color rgb="FFCCECFF"/>
     </mruColors>
   </colors>
@@ -1365,69 +1390,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="10"/>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
     </row>
     <row r="2" spans="3:29" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
       <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="55">
+      <c r="O2" s="54">
         <v>1</v>
       </c>
       <c r="P2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
       <c r="X2" s="39" t="s">
         <v>10</v>
       </c>
@@ -1468,7 +1493,7 @@
       <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="56"/>
+      <c r="O3" s="55"/>
       <c r="P3" s="49" t="s">
         <v>1</v>
       </c>
@@ -1505,7 +1530,7 @@
       <c r="AC3" s="43"/>
     </row>
     <row r="4" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O4" s="56"/>
+      <c r="O4" s="55"/>
       <c r="P4" s="44" t="s">
         <v>16</v>
       </c>
@@ -1524,7 +1549,7 @@
       <c r="AC4" s="33"/>
     </row>
     <row r="5" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O5" s="57"/>
+      <c r="O5" s="56"/>
       <c r="P5" s="34" t="s">
         <v>17</v>
       </c>
@@ -1544,31 +1569,31 @@
     </row>
     <row r="6" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="3"/>
-      <c r="O6" s="55">
+      <c r="O6" s="54">
         <v>2</v>
       </c>
       <c r="P6" s="26"/>
-      <c r="Q6" s="58" t="s">
+      <c r="Q6" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
       <c r="Y6" s="27"/>
       <c r="Z6" s="28"/>
       <c r="AA6" s="28"/>
@@ -1604,7 +1629,7 @@
       <c r="L7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="56"/>
+      <c r="O7" s="55"/>
       <c r="P7" s="32"/>
       <c r="Q7" s="51">
         <v>1</v>
@@ -1639,7 +1664,7 @@
       <c r="AC7" s="33"/>
     </row>
     <row r="8" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O8" s="57"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="34" t="s">
         <v>18</v>
       </c>
@@ -1659,36 +1684,36 @@
     </row>
     <row r="9" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="3"/>
       <c r="M9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="55">
+      <c r="O9" s="54">
         <v>3</v>
       </c>
       <c r="P9" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="Q9" s="58" t="s">
+      <c r="Q9" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
       <c r="X9" s="39" t="s">
         <v>10</v>
       </c>
@@ -1730,7 +1755,7 @@
       <c r="M10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="56"/>
+      <c r="O10" s="55"/>
       <c r="P10" s="49" t="s">
         <v>1</v>
       </c>
@@ -1767,7 +1792,7 @@
       <c r="AC10" s="33"/>
     </row>
     <row r="11" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O11" s="56"/>
+      <c r="O11" s="55"/>
       <c r="P11" s="44" t="s">
         <v>16</v>
       </c>
@@ -1786,7 +1811,7 @@
       <c r="AC11" s="33"/>
     </row>
     <row r="12" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O12" s="57"/>
+      <c r="O12" s="56"/>
       <c r="P12" s="34" t="s">
         <v>19</v>
       </c>
@@ -1805,20 +1830,20 @@
       <c r="AC12" s="37"/>
     </row>
     <row r="13" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O13" s="55">
+      <c r="O13" s="54">
         <v>4</v>
       </c>
       <c r="P13" s="28"/>
-      <c r="Q13" s="58" t="s">
+      <c r="Q13" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
       <c r="Y13" s="27"/>
       <c r="Z13" s="28"/>
       <c r="AA13" s="28"/>
@@ -1826,7 +1851,7 @@
       <c r="AC13" s="29"/>
     </row>
     <row r="14" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O14" s="56"/>
+      <c r="O14" s="55"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="47" t="s">
         <v>15</v>
@@ -1861,7 +1886,7 @@
       <c r="AC14" s="33"/>
     </row>
     <row r="15" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O15" s="57"/>
+      <c r="O15" s="56"/>
       <c r="P15" s="34" t="s">
         <v>20</v>
       </c>
@@ -1880,20 +1905,20 @@
       <c r="AC15" s="37"/>
     </row>
     <row r="16" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O16" s="55">
+      <c r="O16" s="54">
         <v>5</v>
       </c>
       <c r="P16" s="28"/>
-      <c r="Q16" s="58" t="s">
+      <c r="Q16" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
       <c r="Y16" s="27"/>
       <c r="Z16" s="46" t="s">
         <v>7</v>
@@ -1903,7 +1928,7 @@
       <c r="AC16" s="29"/>
     </row>
     <row r="17" spans="15:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O17" s="56"/>
+      <c r="O17" s="55"/>
       <c r="P17" s="32"/>
       <c r="Q17" s="47" t="s">
         <v>15</v>
@@ -1940,7 +1965,7 @@
       <c r="AC17" s="33"/>
     </row>
     <row r="18" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O18" s="56"/>
+      <c r="O18" s="55"/>
       <c r="P18" s="44" t="s">
         <v>21</v>
       </c>
@@ -1959,7 +1984,7 @@
       <c r="AC18" s="33"/>
     </row>
     <row r="19" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O19" s="56"/>
+      <c r="O19" s="55"/>
       <c r="P19" s="44" t="s">
         <v>22</v>
       </c>
@@ -1978,31 +2003,26 @@
       <c r="AC19" s="33"/>
     </row>
     <row r="20" spans="15:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O20" s="57"/>
-      <c r="P20" s="52" t="s">
+      <c r="O20" s="56"/>
+      <c r="P20" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="53"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="O16:O20"/>
     <mergeCell ref="P20:AC20"/>
     <mergeCell ref="O1:AC1"/>
     <mergeCell ref="O2:O5"/>
@@ -2014,16 +2034,695 @@
     <mergeCell ref="Q6:X6"/>
     <mergeCell ref="Q9:W9"/>
     <mergeCell ref="Q13:X13"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="O16:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9211BA1-68A5-40E9-B59A-E5145B454CB1}">
+  <dimension ref="C1:AC20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="5" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="13" max="14" width="5" customWidth="1"/>
+    <col min="16" max="24" width="5" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5" customWidth="1"/>
+    <col min="29" max="29" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C1" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+    </row>
+    <row r="2" spans="3:29" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="54">
+        <v>1</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="65"/>
+    </row>
+    <row r="3" spans="3:29" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="55"/>
+      <c r="P3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="67">
+        <v>1</v>
+      </c>
+      <c r="R3" s="67">
+        <v>1</v>
+      </c>
+      <c r="S3" s="67">
+        <v>1</v>
+      </c>
+      <c r="T3" s="67">
+        <v>0</v>
+      </c>
+      <c r="U3" s="67">
+        <v>1</v>
+      </c>
+      <c r="V3" s="67">
+        <v>1</v>
+      </c>
+      <c r="W3" s="67">
+        <v>0</v>
+      </c>
+      <c r="X3" s="68">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="71"/>
+    </row>
+    <row r="4" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="55"/>
+      <c r="P4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="16"/>
+    </row>
+    <row r="5" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O5" s="56"/>
+      <c r="P5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="20"/>
+    </row>
+    <row r="6" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="2"/>
+      <c r="D6" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="3"/>
+      <c r="O6" s="54">
+        <v>2</v>
+      </c>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="29"/>
+    </row>
+    <row r="7" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="55"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="51">
+        <v>1</v>
+      </c>
+      <c r="R7" s="51">
+        <v>1</v>
+      </c>
+      <c r="S7" s="51">
+        <v>0</v>
+      </c>
+      <c r="T7" s="51">
+        <v>1</v>
+      </c>
+      <c r="U7" s="51">
+        <v>0</v>
+      </c>
+      <c r="V7" s="51">
+        <v>0</v>
+      </c>
+      <c r="W7" s="51">
+        <v>0</v>
+      </c>
+      <c r="X7" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="33"/>
+    </row>
+    <row r="8" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O8" s="56"/>
+      <c r="P8" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="37"/>
+    </row>
+    <row r="9" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="2"/>
+      <c r="D9" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="54">
+        <v>3</v>
+      </c>
+      <c r="P9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="29"/>
+    </row>
+    <row r="10" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="55"/>
+      <c r="P10" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="51">
+        <v>1</v>
+      </c>
+      <c r="R10" s="51">
+        <v>1</v>
+      </c>
+      <c r="S10" s="51">
+        <v>1</v>
+      </c>
+      <c r="T10" s="51">
+        <v>0</v>
+      </c>
+      <c r="U10" s="51">
+        <v>1</v>
+      </c>
+      <c r="V10" s="51">
+        <v>1</v>
+      </c>
+      <c r="W10" s="51">
+        <v>1</v>
+      </c>
+      <c r="X10" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="33"/>
+    </row>
+    <row r="11" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O11" s="55"/>
+      <c r="P11" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="33"/>
+    </row>
+    <row r="12" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="O12" s="56"/>
+      <c r="P12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="37"/>
+    </row>
+    <row r="13" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O13" s="54">
+        <v>4</v>
+      </c>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="29"/>
+    </row>
+    <row r="14" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O14" s="55"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="V14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="33"/>
+    </row>
+    <row r="15" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="O15" s="56"/>
+      <c r="P15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="37"/>
+    </row>
+    <row r="16" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O16" s="54">
+        <v>5</v>
+      </c>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="29"/>
+    </row>
+    <row r="17" spans="15:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O17" s="55"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="X17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="33"/>
+    </row>
+    <row r="18" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O18" s="55"/>
+      <c r="P18" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="33"/>
+    </row>
+    <row r="19" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="55"/>
+      <c r="P19" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="33"/>
+    </row>
+    <row r="20" spans="15:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="56"/>
+      <c r="P20" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="Q13:X13"/>
+    <mergeCell ref="O16:O20"/>
+    <mergeCell ref="Q16:X16"/>
+    <mergeCell ref="P20:AC20"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="O1:AC1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="Q6:X6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1609D8-1CB2-4EB3-9573-4FD3DB83D61B}">
   <dimension ref="C1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -2039,69 +2738,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="10"/>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
     </row>
     <row r="2" spans="3:29" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
       <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="55">
+      <c r="O2" s="54">
         <v>1</v>
       </c>
       <c r="P2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
       <c r="X2" s="39" t="s">
         <v>10</v>
       </c>
@@ -2142,7 +2841,7 @@
       <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="56"/>
+      <c r="O3" s="55"/>
       <c r="P3" s="49" t="s">
         <v>1</v>
       </c>
@@ -2179,7 +2878,7 @@
       <c r="AC3" s="43"/>
     </row>
     <row r="4" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O4" s="56"/>
+      <c r="O4" s="55"/>
       <c r="P4" s="44" t="s">
         <v>16</v>
       </c>
@@ -2198,7 +2897,7 @@
       <c r="AC4" s="33"/>
     </row>
     <row r="5" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O5" s="57"/>
+      <c r="O5" s="56"/>
       <c r="P5" s="34" t="s">
         <v>17</v>
       </c>
@@ -2218,18 +2917,18 @@
     </row>
     <row r="6" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="3"/>
-      <c r="O6" s="55">
+      <c r="O6" s="54">
         <v>2</v>
       </c>
       <c r="P6" s="21"/>
@@ -2278,7 +2977,7 @@
       <c r="L7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="56"/>
+      <c r="O7" s="55"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="47">
         <v>1</v>
@@ -2313,7 +3012,7 @@
       <c r="AC7" s="16"/>
     </row>
     <row r="8" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O8" s="57"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="17" t="s">
         <v>18</v>
       </c>
@@ -2333,36 +3032,36 @@
     </row>
     <row r="9" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="3"/>
       <c r="M9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="55">
+      <c r="O9" s="54">
         <v>3</v>
       </c>
       <c r="P9" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="Q9" s="58" t="s">
+      <c r="Q9" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
       <c r="X9" s="39" t="s">
         <v>10</v>
       </c>
@@ -2404,7 +3103,7 @@
       <c r="M10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="56"/>
+      <c r="O10" s="55"/>
       <c r="P10" s="49" t="s">
         <v>1</v>
       </c>
@@ -2441,7 +3140,7 @@
       <c r="AC10" s="33"/>
     </row>
     <row r="11" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O11" s="56"/>
+      <c r="O11" s="55"/>
       <c r="P11" s="44" t="s">
         <v>16</v>
       </c>
@@ -2460,7 +3159,7 @@
       <c r="AC11" s="33"/>
     </row>
     <row r="12" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O12" s="57"/>
+      <c r="O12" s="56"/>
       <c r="P12" s="34" t="s">
         <v>19</v>
       </c>
@@ -2479,20 +3178,20 @@
       <c r="AC12" s="37"/>
     </row>
     <row r="13" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O13" s="55">
+      <c r="O13" s="54">
         <v>4</v>
       </c>
       <c r="P13" s="28"/>
-      <c r="Q13" s="58" t="s">
+      <c r="Q13" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
       <c r="Y13" s="27"/>
       <c r="Z13" s="28"/>
       <c r="AA13" s="28"/>
@@ -2500,7 +3199,7 @@
       <c r="AC13" s="29"/>
     </row>
     <row r="14" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O14" s="56"/>
+      <c r="O14" s="55"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="47" t="s">
         <v>15</v>
@@ -2535,7 +3234,7 @@
       <c r="AC14" s="33"/>
     </row>
     <row r="15" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O15" s="57"/>
+      <c r="O15" s="56"/>
       <c r="P15" s="34" t="s">
         <v>20</v>
       </c>
@@ -2554,20 +3253,20 @@
       <c r="AC15" s="37"/>
     </row>
     <row r="16" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O16" s="55">
+      <c r="O16" s="54">
         <v>5</v>
       </c>
       <c r="P16" s="28"/>
-      <c r="Q16" s="58" t="s">
+      <c r="Q16" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
       <c r="Y16" s="27"/>
       <c r="Z16" s="46" t="s">
         <v>7</v>
@@ -2577,7 +3276,7 @@
       <c r="AC16" s="29"/>
     </row>
     <row r="17" spans="15:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O17" s="56"/>
+      <c r="O17" s="55"/>
       <c r="P17" s="32"/>
       <c r="Q17" s="51" t="s">
         <v>15</v>
@@ -2614,7 +3313,7 @@
       <c r="AC17" s="33"/>
     </row>
     <row r="18" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O18" s="56"/>
+      <c r="O18" s="55"/>
       <c r="P18" s="44" t="s">
         <v>21</v>
       </c>
@@ -2633,7 +3332,7 @@
       <c r="AC18" s="33"/>
     </row>
     <row r="19" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O19" s="56"/>
+      <c r="O19" s="55"/>
       <c r="P19" s="44" t="s">
         <v>22</v>
       </c>
@@ -2652,697 +3351,23 @@
       <c r="AC19" s="33"/>
     </row>
     <row r="20" spans="15:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O20" s="57"/>
-      <c r="P20" s="52" t="s">
+      <c r="O20" s="56"/>
+      <c r="P20" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="53"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="O16:O20"/>
-    <mergeCell ref="Q16:X16"/>
-    <mergeCell ref="P20:AC20"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="O1:AC1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="Q6:X6"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="O13:O15"/>
-    <mergeCell ref="Q13:X13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E0EA2C-31FB-499D-A580-B5F9E66AC420}">
-  <dimension ref="C1:AC20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17:Z17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" customWidth="1"/>
-    <col min="13" max="14" width="5" customWidth="1"/>
-    <col min="16" max="24" width="5" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5" customWidth="1"/>
-    <col min="29" max="29" width="11.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C1" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-    </row>
-    <row r="2" spans="3:29" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="55">
-        <v>1</v>
-      </c>
-      <c r="P2" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="41"/>
-    </row>
-    <row r="3" spans="3:29" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="51">
-        <v>1</v>
-      </c>
-      <c r="R3" s="51">
-        <v>1</v>
-      </c>
-      <c r="S3" s="51">
-        <v>1</v>
-      </c>
-      <c r="T3" s="51">
-        <v>0</v>
-      </c>
-      <c r="U3" s="51">
-        <v>1</v>
-      </c>
-      <c r="V3" s="51">
-        <v>1</v>
-      </c>
-      <c r="W3" s="51">
-        <v>0</v>
-      </c>
-      <c r="X3" s="50">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="43"/>
-    </row>
-    <row r="4" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O4" s="56"/>
-      <c r="P4" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="33"/>
-    </row>
-    <row r="5" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O5" s="57"/>
-      <c r="P5" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="37"/>
-    </row>
-    <row r="6" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="2"/>
-      <c r="D6" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="3"/>
-      <c r="O6" s="55">
-        <v>2</v>
-      </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="29"/>
-    </row>
-    <row r="7" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="56"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="30">
-        <v>1</v>
-      </c>
-      <c r="R7" s="30">
-        <v>1</v>
-      </c>
-      <c r="S7" s="30">
-        <v>0</v>
-      </c>
-      <c r="T7" s="30">
-        <v>1</v>
-      </c>
-      <c r="U7" s="30">
-        <v>0</v>
-      </c>
-      <c r="V7" s="30">
-        <v>0</v>
-      </c>
-      <c r="W7" s="30">
-        <v>0</v>
-      </c>
-      <c r="X7" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="33"/>
-    </row>
-    <row r="8" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O8" s="57"/>
-      <c r="P8" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="37"/>
-    </row>
-    <row r="9" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="2"/>
-      <c r="D9" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="55">
-        <v>3</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="24"/>
-    </row>
-    <row r="10" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10" s="56"/>
-      <c r="P10" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="51">
-        <v>1</v>
-      </c>
-      <c r="R10" s="51">
-        <v>1</v>
-      </c>
-      <c r="S10" s="51">
-        <v>1</v>
-      </c>
-      <c r="T10" s="51">
-        <v>0</v>
-      </c>
-      <c r="U10" s="51">
-        <v>1</v>
-      </c>
-      <c r="V10" s="51">
-        <v>1</v>
-      </c>
-      <c r="W10" s="51">
-        <v>1</v>
-      </c>
-      <c r="X10" s="50">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="16"/>
-    </row>
-    <row r="11" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O11" s="56"/>
-      <c r="P11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="16"/>
-    </row>
-    <row r="12" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O12" s="57"/>
-      <c r="P12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="20"/>
-    </row>
-    <row r="13" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O13" s="55">
-        <v>4</v>
-      </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="29"/>
-    </row>
-    <row r="14" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O14" s="56"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="R14" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="T14" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="U14" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="V14" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="W14" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="X14" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y14" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="33"/>
-    </row>
-    <row r="15" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O15" s="57"/>
-      <c r="P15" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="37"/>
-    </row>
-    <row r="16" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O16" s="55">
-        <v>5</v>
-      </c>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="29"/>
-    </row>
-    <row r="17" spans="15:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O17" s="56"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="R17" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="T17" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="U17" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="V17" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="W17" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="X17" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y17" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="33"/>
-    </row>
-    <row r="18" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O18" s="56"/>
-      <c r="P18" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="33"/>
-    </row>
-    <row r="19" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O19" s="56"/>
-      <c r="P19" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="33"/>
-    </row>
-    <row r="20" spans="15:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O20" s="57"/>
-      <c r="P20" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="53"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3368,11 +3393,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70C4130-800F-4E67-A099-5EDFE594727C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E0EA2C-31FB-499D-A580-B5F9E66AC420}">
   <dimension ref="C1:AC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3387,69 +3412,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="10"/>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
     </row>
     <row r="2" spans="3:29" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
       <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="55">
+      <c r="O2" s="54">
         <v>1</v>
       </c>
       <c r="P2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
       <c r="X2" s="39" t="s">
         <v>10</v>
       </c>
@@ -3490,7 +3515,7 @@
       <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="56"/>
+      <c r="O3" s="55"/>
       <c r="P3" s="49" t="s">
         <v>1</v>
       </c>
@@ -3527,7 +3552,7 @@
       <c r="AC3" s="43"/>
     </row>
     <row r="4" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O4" s="56"/>
+      <c r="O4" s="55"/>
       <c r="P4" s="44" t="s">
         <v>16</v>
       </c>
@@ -3546,7 +3571,7 @@
       <c r="AC4" s="33"/>
     </row>
     <row r="5" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O5" s="57"/>
+      <c r="O5" s="56"/>
       <c r="P5" s="34" t="s">
         <v>17</v>
       </c>
@@ -3566,31 +3591,31 @@
     </row>
     <row r="6" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="3"/>
-      <c r="O6" s="55">
+      <c r="O6" s="54">
         <v>2</v>
       </c>
       <c r="P6" s="26"/>
-      <c r="Q6" s="58" t="s">
+      <c r="Q6" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
       <c r="Y6" s="27"/>
       <c r="Z6" s="28"/>
       <c r="AA6" s="28"/>
@@ -3626,33 +3651,33 @@
       <c r="L7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="56"/>
+      <c r="O7" s="55"/>
       <c r="P7" s="32"/>
-      <c r="Q7" s="51">
-        <v>1</v>
-      </c>
-      <c r="R7" s="51">
-        <v>1</v>
-      </c>
-      <c r="S7" s="51">
-        <v>0</v>
-      </c>
-      <c r="T7" s="51">
-        <v>1</v>
-      </c>
-      <c r="U7" s="51">
-        <v>0</v>
-      </c>
-      <c r="V7" s="51">
-        <v>0</v>
-      </c>
-      <c r="W7" s="51">
-        <v>0</v>
-      </c>
-      <c r="X7" s="51">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="50" t="s">
+      <c r="Q7" s="30">
+        <v>1</v>
+      </c>
+      <c r="R7" s="30">
+        <v>1</v>
+      </c>
+      <c r="S7" s="30">
+        <v>0</v>
+      </c>
+      <c r="T7" s="30">
+        <v>1</v>
+      </c>
+      <c r="U7" s="30">
+        <v>0</v>
+      </c>
+      <c r="V7" s="30">
+        <v>0</v>
+      </c>
+      <c r="W7" s="30">
+        <v>0</v>
+      </c>
+      <c r="X7" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="31" t="s">
         <v>2</v>
       </c>
       <c r="Z7" s="32"/>
@@ -3661,7 +3686,7 @@
       <c r="AC7" s="33"/>
     </row>
     <row r="8" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O8" s="57"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="34" t="s">
         <v>18</v>
       </c>
@@ -3681,44 +3706,44 @@
     </row>
     <row r="9" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="3"/>
       <c r="M9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="55">
+      <c r="O9" s="54">
         <v>3</v>
       </c>
-      <c r="P9" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="58" t="s">
+      <c r="P9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="39" t="s">
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="29"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="24"/>
     </row>
     <row r="10" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="3"/>
@@ -3752,7 +3777,7 @@
       <c r="M10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="56"/>
+      <c r="O10" s="55"/>
       <c r="P10" s="49" t="s">
         <v>1</v>
       </c>
@@ -3783,73 +3808,73 @@
       <c r="Y10" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="33"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="16"/>
     </row>
     <row r="11" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O11" s="56"/>
-      <c r="P11" s="44" t="s">
+      <c r="O11" s="55"/>
+      <c r="P11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="33"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="16"/>
     </row>
     <row r="12" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O12" s="57"/>
-      <c r="P12" s="34" t="s">
+      <c r="O12" s="56"/>
+      <c r="P12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="37"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="20"/>
     </row>
     <row r="13" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O13" s="55">
+      <c r="O13" s="54">
         <v>4</v>
       </c>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="61" t="s">
+      <c r="P13" s="28"/>
+      <c r="Q13" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="24"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="29"/>
     </row>
     <row r="14" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O14" s="56"/>
-      <c r="P14" s="14"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="32"/>
       <c r="Q14" s="51" t="s">
         <v>15</v>
       </c>
@@ -3877,45 +3902,45 @@
       <c r="Y14" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="16"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="33"/>
     </row>
     <row r="15" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O15" s="57"/>
-      <c r="P15" s="17" t="s">
+      <c r="O15" s="56"/>
+      <c r="P15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="20"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="37"/>
     </row>
     <row r="16" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O16" s="55">
+      <c r="O16" s="54">
         <v>5</v>
       </c>
       <c r="P16" s="28"/>
-      <c r="Q16" s="58" t="s">
+      <c r="Q16" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
       <c r="Y16" s="27"/>
       <c r="Z16" s="46" t="s">
         <v>7</v>
@@ -3925,7 +3950,7 @@
       <c r="AC16" s="29"/>
     </row>
     <row r="17" spans="15:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O17" s="56"/>
+      <c r="O17" s="55"/>
       <c r="P17" s="32"/>
       <c r="Q17" s="51" t="s">
         <v>15</v>
@@ -3962,7 +3987,7 @@
       <c r="AC17" s="33"/>
     </row>
     <row r="18" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O18" s="56"/>
+      <c r="O18" s="55"/>
       <c r="P18" s="44" t="s">
         <v>21</v>
       </c>
@@ -3981,7 +4006,7 @@
       <c r="AC18" s="33"/>
     </row>
     <row r="19" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O19" s="56"/>
+      <c r="O19" s="55"/>
       <c r="P19" s="44" t="s">
         <v>22</v>
       </c>
@@ -4000,23 +4025,23 @@
       <c r="AC19" s="33"/>
     </row>
     <row r="20" spans="15:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O20" s="57"/>
-      <c r="P20" s="52" t="s">
+      <c r="O20" s="56"/>
+      <c r="P20" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="53"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4042,6 +4067,680 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70C4130-800F-4E67-A099-5EDFE594727C}">
+  <dimension ref="C1:AC20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="5" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="13" max="14" width="5" customWidth="1"/>
+    <col min="16" max="24" width="5" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5" customWidth="1"/>
+    <col min="29" max="29" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C1" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+    </row>
+    <row r="2" spans="3:29" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="54">
+        <v>1</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="41"/>
+    </row>
+    <row r="3" spans="3:29" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="55"/>
+      <c r="P3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="51">
+        <v>1</v>
+      </c>
+      <c r="R3" s="51">
+        <v>1</v>
+      </c>
+      <c r="S3" s="51">
+        <v>1</v>
+      </c>
+      <c r="T3" s="51">
+        <v>0</v>
+      </c>
+      <c r="U3" s="51">
+        <v>1</v>
+      </c>
+      <c r="V3" s="51">
+        <v>1</v>
+      </c>
+      <c r="W3" s="51">
+        <v>0</v>
+      </c>
+      <c r="X3" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="43"/>
+    </row>
+    <row r="4" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="55"/>
+      <c r="P4" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="33"/>
+    </row>
+    <row r="5" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O5" s="56"/>
+      <c r="P5" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="37"/>
+    </row>
+    <row r="6" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="2"/>
+      <c r="D6" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="3"/>
+      <c r="O6" s="54">
+        <v>2</v>
+      </c>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="29"/>
+    </row>
+    <row r="7" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="55"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="51">
+        <v>1</v>
+      </c>
+      <c r="R7" s="51">
+        <v>1</v>
+      </c>
+      <c r="S7" s="51">
+        <v>0</v>
+      </c>
+      <c r="T7" s="51">
+        <v>1</v>
+      </c>
+      <c r="U7" s="51">
+        <v>0</v>
+      </c>
+      <c r="V7" s="51">
+        <v>0</v>
+      </c>
+      <c r="W7" s="51">
+        <v>0</v>
+      </c>
+      <c r="X7" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="33"/>
+    </row>
+    <row r="8" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O8" s="56"/>
+      <c r="P8" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="37"/>
+    </row>
+    <row r="9" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="2"/>
+      <c r="D9" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="54">
+        <v>3</v>
+      </c>
+      <c r="P9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="29"/>
+    </row>
+    <row r="10" spans="3:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="55"/>
+      <c r="P10" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="51">
+        <v>1</v>
+      </c>
+      <c r="R10" s="51">
+        <v>1</v>
+      </c>
+      <c r="S10" s="51">
+        <v>1</v>
+      </c>
+      <c r="T10" s="51">
+        <v>0</v>
+      </c>
+      <c r="U10" s="51">
+        <v>1</v>
+      </c>
+      <c r="V10" s="51">
+        <v>1</v>
+      </c>
+      <c r="W10" s="51">
+        <v>1</v>
+      </c>
+      <c r="X10" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="33"/>
+    </row>
+    <row r="11" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O11" s="55"/>
+      <c r="P11" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="33"/>
+    </row>
+    <row r="12" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="O12" s="56"/>
+      <c r="P12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="37"/>
+    </row>
+    <row r="13" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O13" s="54">
+        <v>4</v>
+      </c>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="24"/>
+    </row>
+    <row r="14" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O14" s="55"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="V14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="16"/>
+    </row>
+    <row r="15" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="O15" s="56"/>
+      <c r="P15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="20"/>
+    </row>
+    <row r="16" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O16" s="54">
+        <v>5</v>
+      </c>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="29"/>
+    </row>
+    <row r="17" spans="15:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O17" s="55"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="X17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="33"/>
+    </row>
+    <row r="18" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O18" s="55"/>
+      <c r="P18" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="33"/>
+    </row>
+    <row r="19" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="55"/>
+      <c r="P19" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="33"/>
+    </row>
+    <row r="20" spans="15:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="56"/>
+      <c r="P20" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="O16:O20"/>
+    <mergeCell ref="Q16:X16"/>
+    <mergeCell ref="P20:AC20"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="O1:AC1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="Q6:X6"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="Q13:X13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E484F64-7A42-4F53-9F7D-E20A7B3204CE}">
   <dimension ref="C1:AC20"/>
   <sheetViews>
@@ -4061,69 +4760,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="10"/>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
     </row>
     <row r="2" spans="3:29" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
       <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="55">
+      <c r="O2" s="54">
         <v>1</v>
       </c>
       <c r="P2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
       <c r="X2" s="39" t="s">
         <v>10</v>
       </c>
@@ -4164,7 +4863,7 @@
       <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="56"/>
+      <c r="O3" s="55"/>
       <c r="P3" s="49" t="s">
         <v>1</v>
       </c>
@@ -4201,7 +4900,7 @@
       <c r="AC3" s="43"/>
     </row>
     <row r="4" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O4" s="56"/>
+      <c r="O4" s="55"/>
       <c r="P4" s="44" t="s">
         <v>16</v>
       </c>
@@ -4220,7 +4919,7 @@
       <c r="AC4" s="33"/>
     </row>
     <row r="5" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O5" s="57"/>
+      <c r="O5" s="56"/>
       <c r="P5" s="34" t="s">
         <v>17</v>
       </c>
@@ -4240,31 +4939,31 @@
     </row>
     <row r="6" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="3"/>
-      <c r="O6" s="55">
+      <c r="O6" s="54">
         <v>2</v>
       </c>
       <c r="P6" s="26"/>
-      <c r="Q6" s="58" t="s">
+      <c r="Q6" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
       <c r="Y6" s="27"/>
       <c r="Z6" s="28"/>
       <c r="AA6" s="28"/>
@@ -4300,7 +4999,7 @@
       <c r="L7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="56"/>
+      <c r="O7" s="55"/>
       <c r="P7" s="32"/>
       <c r="Q7" s="51">
         <v>1</v>
@@ -4335,7 +5034,7 @@
       <c r="AC7" s="33"/>
     </row>
     <row r="8" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O8" s="57"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="34" t="s">
         <v>18</v>
       </c>
@@ -4355,36 +5054,36 @@
     </row>
     <row r="9" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="3"/>
       <c r="M9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="55">
+      <c r="O9" s="54">
         <v>3</v>
       </c>
       <c r="P9" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="Q9" s="58" t="s">
+      <c r="Q9" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
       <c r="X9" s="39" t="s">
         <v>10</v>
       </c>
@@ -4426,7 +5125,7 @@
       <c r="M10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="56"/>
+      <c r="O10" s="55"/>
       <c r="P10" s="49" t="s">
         <v>1</v>
       </c>
@@ -4463,7 +5162,7 @@
       <c r="AC10" s="33"/>
     </row>
     <row r="11" spans="3:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O11" s="56"/>
+      <c r="O11" s="55"/>
       <c r="P11" s="44" t="s">
         <v>16</v>
       </c>
@@ -4482,7 +5181,7 @@
       <c r="AC11" s="33"/>
     </row>
     <row r="12" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O12" s="57"/>
+      <c r="O12" s="56"/>
       <c r="P12" s="34" t="s">
         <v>19</v>
       </c>
@@ -4501,20 +5200,20 @@
       <c r="AC12" s="37"/>
     </row>
     <row r="13" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O13" s="55">
+      <c r="O13" s="54">
         <v>4</v>
       </c>
       <c r="P13" s="28"/>
-      <c r="Q13" s="58" t="s">
+      <c r="Q13" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
       <c r="Y13" s="27"/>
       <c r="Z13" s="28"/>
       <c r="AA13" s="28"/>
@@ -4522,7 +5221,7 @@
       <c r="AC13" s="29"/>
     </row>
     <row r="14" spans="3:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O14" s="56"/>
+      <c r="O14" s="55"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="51" t="s">
         <v>15</v>
@@ -4557,7 +5256,7 @@
       <c r="AC14" s="33"/>
     </row>
     <row r="15" spans="3:29" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="O15" s="57"/>
+      <c r="O15" s="56"/>
       <c r="P15" s="34" t="s">
         <v>20</v>
       </c>
@@ -4576,7 +5275,7 @@
       <c r="AC15" s="37"/>
     </row>
     <row r="16" spans="3:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O16" s="55">
+      <c r="O16" s="54">
         <v>5</v>
       </c>
       <c r="P16" s="23"/>
@@ -4599,7 +5298,7 @@
       <c r="AC16" s="24"/>
     </row>
     <row r="17" spans="15:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O17" s="56"/>
+      <c r="O17" s="55"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="51" t="s">
         <v>15</v>
@@ -4636,7 +5335,7 @@
       <c r="AC17" s="16"/>
     </row>
     <row r="18" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O18" s="56"/>
+      <c r="O18" s="55"/>
       <c r="P18" s="13" t="s">
         <v>21</v>
       </c>
@@ -4655,7 +5354,7 @@
       <c r="AC18" s="16"/>
     </row>
     <row r="19" spans="15:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O19" s="56"/>
+      <c r="O19" s="55"/>
       <c r="P19" s="13" t="s">
         <v>22</v>
       </c>
@@ -4674,7 +5373,7 @@
       <c r="AC19" s="16"/>
     </row>
     <row r="20" spans="15:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O20" s="57"/>
+      <c r="O20" s="56"/>
       <c r="P20" s="62" t="s">
         <v>23</v>
       </c>
